--- a/data/pca/factorExposure/factorExposure_2010-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-19.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01417761829251537</v>
+        <v>-0.01698478800779176</v>
       </c>
       <c r="C2">
-        <v>-0.0110071386506356</v>
+        <v>0.001004479052773127</v>
       </c>
       <c r="D2">
-        <v>0.004044048631173521</v>
+        <v>0.008166142066183581</v>
       </c>
       <c r="E2">
-        <v>0.008466665687735834</v>
+        <v>1.534823669721861e-05</v>
       </c>
       <c r="F2">
-        <v>0.009743024009658503</v>
+        <v>-0.009771908634047132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1254815850336791</v>
+        <v>-0.0933813894462604</v>
       </c>
       <c r="C4">
-        <v>-0.06001918677936563</v>
+        <v>0.01577149181012683</v>
       </c>
       <c r="D4">
-        <v>-0.02726402857362407</v>
+        <v>0.08499569525834552</v>
       </c>
       <c r="E4">
-        <v>0.00182503433328081</v>
+        <v>-0.03086971791186103</v>
       </c>
       <c r="F4">
-        <v>-0.003315863771765273</v>
+        <v>0.03029489111827702</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1209758393622709</v>
+        <v>-0.1549275855531917</v>
       </c>
       <c r="C6">
-        <v>0.01773515885317554</v>
+        <v>0.02467814181819889</v>
       </c>
       <c r="D6">
-        <v>0.0001852941388107427</v>
+        <v>-0.0220120888042855</v>
       </c>
       <c r="E6">
-        <v>0.03083008297239456</v>
+        <v>-0.01074043074481812</v>
       </c>
       <c r="F6">
-        <v>0.02278453397058432</v>
+        <v>0.0501608300307521</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07433479597022687</v>
+        <v>-0.05923746483230762</v>
       </c>
       <c r="C7">
-        <v>-0.03166354788697036</v>
+        <v>-0.0009944754083132208</v>
       </c>
       <c r="D7">
-        <v>-0.04533494016860656</v>
+        <v>0.05214368974170078</v>
       </c>
       <c r="E7">
-        <v>0.06035438990234377</v>
+        <v>-0.01451217747090998</v>
       </c>
       <c r="F7">
-        <v>0.01699574790712826</v>
+        <v>0.04781066839598014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05513609319956712</v>
+        <v>-0.05788300644480251</v>
       </c>
       <c r="C8">
-        <v>-0.02299950595926662</v>
+        <v>-0.01339640384075954</v>
       </c>
       <c r="D8">
-        <v>-0.02005354124634133</v>
+        <v>0.03259919556880148</v>
       </c>
       <c r="E8">
-        <v>0.02538867768988433</v>
+        <v>-0.01549631338657226</v>
       </c>
       <c r="F8">
-        <v>-0.01108117397131464</v>
+        <v>-0.03103413677719664</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09193297384079731</v>
+        <v>-0.07118456927065567</v>
       </c>
       <c r="C9">
-        <v>-0.0541113554623805</v>
+        <v>0.01175730767448969</v>
       </c>
       <c r="D9">
-        <v>-0.01245513870514398</v>
+        <v>0.08436614495224873</v>
       </c>
       <c r="E9">
-        <v>0.01400121886633653</v>
+        <v>-0.02544221243791547</v>
       </c>
       <c r="F9">
-        <v>-0.01278965307637987</v>
+        <v>0.05171845396318376</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09358778215736203</v>
+        <v>-0.09527724008351995</v>
       </c>
       <c r="C10">
-        <v>0.1577538531436374</v>
+        <v>0.01794272104516217</v>
       </c>
       <c r="D10">
-        <v>0.09092581129911834</v>
+        <v>-0.1703355444587753</v>
       </c>
       <c r="E10">
-        <v>-0.01476227123859979</v>
+        <v>0.03907229621339271</v>
       </c>
       <c r="F10">
-        <v>0.006995458575118615</v>
+        <v>-0.05368321593965288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08254366861675028</v>
+        <v>-0.08716193850989302</v>
       </c>
       <c r="C11">
-        <v>-0.02968213749941396</v>
+        <v>0.01138967315096797</v>
       </c>
       <c r="D11">
-        <v>-0.0315942845642027</v>
+        <v>0.1149019804460455</v>
       </c>
       <c r="E11">
-        <v>0.04625192588317895</v>
+        <v>-0.04942871213311652</v>
       </c>
       <c r="F11">
-        <v>-0.02509992739005354</v>
+        <v>0.01844019417231373</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08580409389214823</v>
+        <v>-0.09165648825094261</v>
       </c>
       <c r="C12">
-        <v>-0.04973047178687134</v>
+        <v>0.008961502767913148</v>
       </c>
       <c r="D12">
-        <v>-0.04097863984849748</v>
+        <v>0.1239688306144305</v>
       </c>
       <c r="E12">
-        <v>0.05531783369888833</v>
+        <v>-0.04914536665275612</v>
       </c>
       <c r="F12">
-        <v>-0.06884843767765536</v>
+        <v>0.01823911917040308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03730727637076161</v>
+        <v>-0.04290664606661183</v>
       </c>
       <c r="C13">
-        <v>-0.0325825370596822</v>
+        <v>0.00400046761103713</v>
       </c>
       <c r="D13">
-        <v>0.0007619176588371115</v>
+        <v>0.04662778251494115</v>
       </c>
       <c r="E13">
-        <v>0.005289716175003396</v>
+        <v>0.01192528154851014</v>
       </c>
       <c r="F13">
-        <v>0.02398473874983507</v>
+        <v>0.01311644918973896</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03038580675944565</v>
+        <v>-0.02227668226912422</v>
       </c>
       <c r="C14">
-        <v>-0.0004415159857166573</v>
+        <v>0.01424039531369928</v>
       </c>
       <c r="D14">
-        <v>-0.008441488413390836</v>
+        <v>0.0312797658300366</v>
       </c>
       <c r="E14">
-        <v>-0.003383488661309655</v>
+        <v>-0.01892890228458328</v>
       </c>
       <c r="F14">
-        <v>-0.01900616099513429</v>
+        <v>0.01673147667227618</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02084435667081151</v>
+        <v>-0.03140563882271105</v>
       </c>
       <c r="C15">
-        <v>-0.01901743411989268</v>
+        <v>0.005276388859792136</v>
       </c>
       <c r="D15">
-        <v>0.01495047782883864</v>
+        <v>0.04503145110150616</v>
       </c>
       <c r="E15">
-        <v>0.008992655870979426</v>
+        <v>-0.008814671601603432</v>
       </c>
       <c r="F15">
-        <v>0.04776384648440936</v>
+        <v>0.02895950404233165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09176605003831761</v>
+        <v>-0.07286725689876331</v>
       </c>
       <c r="C16">
-        <v>-0.03438157170964036</v>
+        <v>0.00278930202771647</v>
       </c>
       <c r="D16">
-        <v>-0.04308239739441812</v>
+        <v>0.1188946534579201</v>
       </c>
       <c r="E16">
-        <v>0.05753902828481607</v>
+        <v>-0.06420719758023426</v>
       </c>
       <c r="F16">
-        <v>-0.05263632041214619</v>
+        <v>0.02736998049951277</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02404289165399547</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00382976487767812</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01882040494760839</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.006291313453570935</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01760056051489594</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05051017499784313</v>
+        <v>-0.06043377828923129</v>
       </c>
       <c r="C20">
-        <v>-0.01618036567553179</v>
+        <v>0.0004391402488882628</v>
       </c>
       <c r="D20">
-        <v>-0.03698435070375083</v>
+        <v>0.07512290804312621</v>
       </c>
       <c r="E20">
-        <v>0.006157435473311825</v>
+        <v>-0.0557328037662686</v>
       </c>
       <c r="F20">
-        <v>0.02964871216491862</v>
+        <v>0.02603540021622994</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03209330584875342</v>
+        <v>-0.03867924022498548</v>
       </c>
       <c r="C21">
-        <v>0.0001431999387777311</v>
+        <v>0.006825502654893996</v>
       </c>
       <c r="D21">
-        <v>-0.005643277576918439</v>
+        <v>0.03649248137651463</v>
       </c>
       <c r="E21">
-        <v>-0.03384743588638255</v>
+        <v>0.007728633006585071</v>
       </c>
       <c r="F21">
-        <v>-0.008641148153020391</v>
+        <v>-0.02147449311670309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03009554572101091</v>
+        <v>-0.04330479440281851</v>
       </c>
       <c r="C22">
-        <v>0.03334722300708974</v>
+        <v>0.00104256399715943</v>
       </c>
       <c r="D22">
-        <v>0.02471322225757808</v>
+        <v>-0.001943943742791774</v>
       </c>
       <c r="E22">
-        <v>0.0962304577792857</v>
+        <v>-0.02788892359100379</v>
       </c>
       <c r="F22">
-        <v>0.599090632894848</v>
+        <v>-0.004015342533090186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03030431145324862</v>
+        <v>-0.04335708305014559</v>
       </c>
       <c r="C23">
-        <v>0.03324241839613978</v>
+        <v>0.001064697788674917</v>
       </c>
       <c r="D23">
-        <v>0.02451222871509341</v>
+        <v>-0.001817083134501169</v>
       </c>
       <c r="E23">
-        <v>0.09840446864699198</v>
+        <v>-0.02824432151702712</v>
       </c>
       <c r="F23">
-        <v>0.6021505026755147</v>
+        <v>-0.003552407218669736</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09016240528122436</v>
+        <v>-0.07932703433817738</v>
       </c>
       <c r="C24">
-        <v>-0.02431073150896248</v>
+        <v>0.003046638390695165</v>
       </c>
       <c r="D24">
-        <v>-0.05365504042140479</v>
+        <v>0.1191481879663137</v>
       </c>
       <c r="E24">
-        <v>0.05415121685004014</v>
+        <v>-0.05213951470205824</v>
       </c>
       <c r="F24">
-        <v>-0.04393620744658465</v>
+        <v>0.01991494368644753</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09424169912679847</v>
+        <v>-0.08445113541079957</v>
       </c>
       <c r="C25">
-        <v>-0.0252854321952401</v>
+        <v>0.005147979389171538</v>
       </c>
       <c r="D25">
-        <v>-0.03120458596017341</v>
+        <v>0.1076101826523014</v>
       </c>
       <c r="E25">
-        <v>0.04594576596277287</v>
+        <v>-0.03488502578685283</v>
       </c>
       <c r="F25">
-        <v>-0.0714960860741756</v>
+        <v>0.02780955069745003</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03475284016591784</v>
+        <v>-0.05454835773684857</v>
       </c>
       <c r="C26">
-        <v>0.03639381928521061</v>
+        <v>0.01474309545904259</v>
       </c>
       <c r="D26">
-        <v>-0.002149468099219481</v>
+        <v>0.03817750584474308</v>
       </c>
       <c r="E26">
-        <v>0.003290634328664324</v>
+        <v>-0.02739755373172251</v>
       </c>
       <c r="F26">
-        <v>0.009154222836678992</v>
+        <v>-0.01296023445802625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09544872972954865</v>
+        <v>-0.1436848336276204</v>
       </c>
       <c r="C28">
-        <v>0.2391583802651175</v>
+        <v>0.01676728025284991</v>
       </c>
       <c r="D28">
-        <v>0.2135025678899057</v>
+        <v>-0.2655444875291436</v>
       </c>
       <c r="E28">
-        <v>-0.04607286218963592</v>
+        <v>0.06887478454725778</v>
       </c>
       <c r="F28">
-        <v>-0.0357174915312647</v>
+        <v>0.02886335212205439</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02998991853585728</v>
+        <v>-0.02710348611407629</v>
       </c>
       <c r="C29">
-        <v>-0.006141530419577556</v>
+        <v>0.00856221479097167</v>
       </c>
       <c r="D29">
-        <v>0.0006454658338297122</v>
+        <v>0.03002991504191857</v>
       </c>
       <c r="E29">
-        <v>-0.0005266495501038091</v>
+        <v>-0.01188527090494188</v>
       </c>
       <c r="F29">
-        <v>-0.03495129883169825</v>
+        <v>-0.01505016937732824</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.107663256872498</v>
+        <v>-0.06235854373436481</v>
       </c>
       <c r="C30">
-        <v>-0.08903101574822543</v>
+        <v>0.004307670321120525</v>
       </c>
       <c r="D30">
-        <v>-0.05383641258227131</v>
+        <v>0.08691376637976803</v>
       </c>
       <c r="E30">
-        <v>0.06115905740075555</v>
+        <v>-0.02494118499063963</v>
       </c>
       <c r="F30">
-        <v>-0.05194203766509661</v>
+        <v>0.1025520425487561</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03103400325113845</v>
+        <v>-0.04810403025714699</v>
       </c>
       <c r="C31">
-        <v>-0.01101486032929002</v>
+        <v>0.01484010783945372</v>
       </c>
       <c r="D31">
-        <v>-0.02152232999302326</v>
+        <v>0.02807353943645922</v>
       </c>
       <c r="E31">
-        <v>0.02190266076318633</v>
+        <v>-0.02786131315668241</v>
       </c>
       <c r="F31">
-        <v>-0.001353071361668056</v>
+        <v>-0.004625479886768404</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06024924479987556</v>
+        <v>-0.04783656456426681</v>
       </c>
       <c r="C32">
-        <v>0.001184026995963262</v>
+        <v>-0.0004310866194708304</v>
       </c>
       <c r="D32">
-        <v>-0.02803217838605338</v>
+        <v>0.03064312573543115</v>
       </c>
       <c r="E32">
-        <v>0.000465838088061992</v>
+        <v>-0.03012720945909416</v>
       </c>
       <c r="F32">
-        <v>-0.07270927965100281</v>
+        <v>0.001254958082859462</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09912312532017015</v>
+        <v>-0.08946567916396679</v>
       </c>
       <c r="C33">
-        <v>-0.05281783250050565</v>
+        <v>0.008494950325321401</v>
       </c>
       <c r="D33">
-        <v>-0.003368053553471429</v>
+        <v>0.09652598512090506</v>
       </c>
       <c r="E33">
-        <v>0.08066817282094221</v>
+        <v>-0.04798116239260873</v>
       </c>
       <c r="F33">
-        <v>-0.02670277994551793</v>
+        <v>0.03869794390457128</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07728572829373519</v>
+        <v>-0.06713331222252299</v>
       </c>
       <c r="C34">
-        <v>-0.02510846037195429</v>
+        <v>0.01193179809391306</v>
       </c>
       <c r="D34">
-        <v>-0.03972539498588511</v>
+        <v>0.09889326529233558</v>
       </c>
       <c r="E34">
-        <v>0.0526806260121414</v>
+        <v>-0.03640969885981182</v>
       </c>
       <c r="F34">
-        <v>-0.04448245541803596</v>
+        <v>0.03768442421571973</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01308193540723337</v>
+        <v>-0.02438770306816841</v>
       </c>
       <c r="C35">
-        <v>-0.01472610866562763</v>
+        <v>0.002343275350855999</v>
       </c>
       <c r="D35">
-        <v>0.001877680850999416</v>
+        <v>0.01160949952132343</v>
       </c>
       <c r="E35">
-        <v>-0.001714829911342342</v>
+        <v>-0.01108722967564692</v>
       </c>
       <c r="F35">
-        <v>-0.001566806774300644</v>
+        <v>0.008621670837192631</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02911193913330927</v>
+        <v>-0.02448561423464315</v>
       </c>
       <c r="C36">
-        <v>-0.007208408946653432</v>
+        <v>0.007362652705336767</v>
       </c>
       <c r="D36">
-        <v>-0.0003510556466432435</v>
+        <v>0.03686500643866447</v>
       </c>
       <c r="E36">
-        <v>0.005443269819301384</v>
+        <v>-0.01729807022660827</v>
       </c>
       <c r="F36">
-        <v>0.005483717752119327</v>
+        <v>0.01412796830834243</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00723675747404863</v>
+        <v>-0.001519908470032463</v>
       </c>
       <c r="C38">
-        <v>-0.003647448050786528</v>
+        <v>0.0002394100081161847</v>
       </c>
       <c r="D38">
-        <v>-0.002928569382240748</v>
+        <v>0.0009118325004541829</v>
       </c>
       <c r="E38">
-        <v>0.007472088806671525</v>
+        <v>-0.001207839961969251</v>
       </c>
       <c r="F38">
-        <v>0.02019266532388097</v>
+        <v>-0.001387772270899345</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1327290500602879</v>
+        <v>-0.1074788063421438</v>
       </c>
       <c r="C39">
-        <v>-0.07542850660454792</v>
+        <v>0.01657342875752656</v>
       </c>
       <c r="D39">
-        <v>-0.05023574518701043</v>
+        <v>0.1555618862847397</v>
       </c>
       <c r="E39">
-        <v>0.07114525770421289</v>
+        <v>-0.06228055358491109</v>
       </c>
       <c r="F39">
-        <v>-0.1493160784851457</v>
+        <v>0.02292867944604101</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.004524875689474682</v>
+        <v>-0.03707462338523537</v>
       </c>
       <c r="C40">
-        <v>-0.005434147287090862</v>
+        <v>0.007219704828876164</v>
       </c>
       <c r="D40">
-        <v>-0.03069107998486108</v>
+        <v>0.0315459944523481</v>
       </c>
       <c r="E40">
-        <v>0.002623497383572024</v>
+        <v>-0.003084090098105023</v>
       </c>
       <c r="F40">
-        <v>0.06787288480318525</v>
+        <v>-0.01341823427176713</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02161163226919567</v>
+        <v>-0.02634098189041506</v>
       </c>
       <c r="C41">
-        <v>0.01876722291528115</v>
+        <v>0.006533113389062727</v>
       </c>
       <c r="D41">
-        <v>-0.01449693260260452</v>
+        <v>0.01140224641550205</v>
       </c>
       <c r="E41">
-        <v>0.01210362430847453</v>
+        <v>-0.01222092930710333</v>
       </c>
       <c r="F41">
-        <v>-0.01159886027872514</v>
+        <v>-0.00854234212712748</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03338424704377346</v>
+        <v>-0.04017389875300766</v>
       </c>
       <c r="C43">
-        <v>0.01508004457465705</v>
+        <v>0.00662273223950853</v>
       </c>
       <c r="D43">
-        <v>-0.008260042193245679</v>
+        <v>0.02127464891823471</v>
       </c>
       <c r="E43">
-        <v>0.03259077778621985</v>
+        <v>-0.02466838107474384</v>
       </c>
       <c r="F43">
-        <v>-0.008308181307175252</v>
+        <v>-0.01347077965434918</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1324262429146871</v>
+        <v>-0.07579898572797773</v>
       </c>
       <c r="C44">
-        <v>-0.09931521381452199</v>
+        <v>0.02152115017969997</v>
       </c>
       <c r="D44">
-        <v>-0.07592266515240577</v>
+        <v>0.09516352473496417</v>
       </c>
       <c r="E44">
-        <v>0.09145418395225896</v>
+        <v>-0.07585229814976174</v>
       </c>
       <c r="F44">
-        <v>0.09514044853523446</v>
+        <v>0.1828138165998703</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01640847821819202</v>
+        <v>-0.02252463054733237</v>
       </c>
       <c r="C46">
-        <v>0.02456050935825597</v>
+        <v>0.003569834192654158</v>
       </c>
       <c r="D46">
-        <v>0.01238004889902425</v>
+        <v>0.01203257357272473</v>
       </c>
       <c r="E46">
-        <v>0.02862110957911843</v>
+        <v>-0.02366876192344781</v>
       </c>
       <c r="F46">
-        <v>0.01902734710740134</v>
+        <v>-0.0008618468429871998</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0384937671015942</v>
+        <v>-0.05153614902040748</v>
       </c>
       <c r="C47">
-        <v>0.005278140033444737</v>
+        <v>0.003182100217553471</v>
       </c>
       <c r="D47">
-        <v>-0.02118318432727137</v>
+        <v>0.01437339703458116</v>
       </c>
       <c r="E47">
-        <v>0.01057126751748443</v>
+        <v>-0.02240229804195635</v>
       </c>
       <c r="F47">
-        <v>-0.007656753867115011</v>
+        <v>-0.04461715766282933</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03524515345284131</v>
+        <v>-0.04734744878653797</v>
       </c>
       <c r="C48">
-        <v>-0.006369701399427054</v>
+        <v>0.002650393768239828</v>
       </c>
       <c r="D48">
-        <v>0.01516272265345171</v>
+        <v>0.04939481639053548</v>
       </c>
       <c r="E48">
-        <v>-0.006396857298048622</v>
+        <v>0.004329341168088298</v>
       </c>
       <c r="F48">
-        <v>-0.005829980879321078</v>
+        <v>0.01006717789784254</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2288461546135692</v>
+        <v>-0.2030640497772321</v>
       </c>
       <c r="C49">
-        <v>0.0312788609801883</v>
+        <v>0.01763560724739132</v>
       </c>
       <c r="D49">
-        <v>-0.05541253095201339</v>
+        <v>-0.009918188474759834</v>
       </c>
       <c r="E49">
-        <v>0.005802830582152565</v>
+        <v>-0.03312075363078046</v>
       </c>
       <c r="F49">
-        <v>-0.02950391145887618</v>
+        <v>0.02885331474593784</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03790721793652387</v>
+        <v>-0.04811163061316354</v>
       </c>
       <c r="C50">
-        <v>0.002227796373107735</v>
+        <v>0.01096979117591903</v>
       </c>
       <c r="D50">
-        <v>-0.02923122336714989</v>
+        <v>0.0266301482060559</v>
       </c>
       <c r="E50">
-        <v>0.01843296588861143</v>
+        <v>-0.02965944970743647</v>
       </c>
       <c r="F50">
-        <v>-0.01336908641304124</v>
+        <v>0.008336445837242985</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01040740306293423</v>
+        <v>-0.002126495009368032</v>
       </c>
       <c r="C51">
-        <v>0.01152085977007225</v>
+        <v>0.0005387378949721926</v>
       </c>
       <c r="D51">
-        <v>0.01395700811409199</v>
+        <v>-0.002284777208423785</v>
       </c>
       <c r="E51">
-        <v>0.01389483302219458</v>
+        <v>4.191099906342599e-05</v>
       </c>
       <c r="F51">
-        <v>0.004802970553004463</v>
+        <v>0.004668780736730399</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1101043558825855</v>
+        <v>-0.1448427699951966</v>
       </c>
       <c r="C52">
-        <v>-0.07383777022786611</v>
+        <v>0.01398378188732992</v>
       </c>
       <c r="D52">
-        <v>-0.02305272332157196</v>
+        <v>0.05076817911738953</v>
       </c>
       <c r="E52">
-        <v>-0.001251110860685064</v>
+        <v>-0.02421241006744216</v>
       </c>
       <c r="F52">
-        <v>-0.001751796895027283</v>
+        <v>0.03413327284987551</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1610539819083104</v>
+        <v>-0.1739731553837369</v>
       </c>
       <c r="C53">
-        <v>-0.03049042731089496</v>
+        <v>0.01687901679443838</v>
       </c>
       <c r="D53">
-        <v>-0.009660070407535975</v>
+        <v>0.01113566315454754</v>
       </c>
       <c r="E53">
-        <v>-0.002011521217530212</v>
+        <v>-0.03570425022564001</v>
       </c>
       <c r="F53">
-        <v>0.02863692319892093</v>
+        <v>0.06693954371318966</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04936589976998298</v>
+        <v>-0.02165924255499118</v>
       </c>
       <c r="C54">
-        <v>-0.006260417378032096</v>
+        <v>0.01238326315188279</v>
       </c>
       <c r="D54">
-        <v>-0.02079458833862843</v>
+        <v>0.03311778107640215</v>
       </c>
       <c r="E54">
-        <v>0.02031514465727022</v>
+        <v>-0.01558130987396614</v>
       </c>
       <c r="F54">
-        <v>0.02283328690853691</v>
+        <v>-0.005281087134489429</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08393830916939468</v>
+        <v>-0.114155265827081</v>
       </c>
       <c r="C55">
-        <v>-0.03069077002287112</v>
+        <v>0.01548427001499189</v>
       </c>
       <c r="D55">
-        <v>0.01828025267767738</v>
+        <v>0.01106141313601694</v>
       </c>
       <c r="E55">
-        <v>0.03919390921455475</v>
+        <v>-0.03115857905806627</v>
       </c>
       <c r="F55">
-        <v>-0.02343337932806066</v>
+        <v>0.04507773970784808</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1569510192899438</v>
+        <v>-0.1774872171327157</v>
       </c>
       <c r="C56">
-        <v>-0.02509331341469199</v>
+        <v>0.01436662725473707</v>
       </c>
       <c r="D56">
-        <v>-0.03845711423790799</v>
+        <v>0.007483460676397644</v>
       </c>
       <c r="E56">
-        <v>0.04200402368645523</v>
+        <v>-0.04056020225953737</v>
       </c>
       <c r="F56">
-        <v>-0.01333959526835866</v>
+        <v>0.04346431962560764</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04649310272045726</v>
+        <v>-0.04641766709795054</v>
       </c>
       <c r="C58">
-        <v>0.006005059305761127</v>
+        <v>0.001313645010933243</v>
       </c>
       <c r="D58">
-        <v>0.001319826475348429</v>
+        <v>0.06625196709488532</v>
       </c>
       <c r="E58">
-        <v>-0.01812094228055297</v>
+        <v>-0.02345726627226721</v>
       </c>
       <c r="F58">
-        <v>0.06110341072434096</v>
+        <v>-0.04378561900617504</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1675956875857007</v>
+        <v>-0.1725249483485654</v>
       </c>
       <c r="C59">
-        <v>0.188671745523428</v>
+        <v>0.01748967048339141</v>
       </c>
       <c r="D59">
-        <v>0.166706798406451</v>
+        <v>-0.2229049405582297</v>
       </c>
       <c r="E59">
-        <v>-0.006770300820166491</v>
+        <v>0.04884005702656927</v>
       </c>
       <c r="F59">
-        <v>-0.05218498124060696</v>
+        <v>-0.03204532671081223</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2788528907526213</v>
+        <v>-0.2357089221421337</v>
       </c>
       <c r="C60">
-        <v>-0.09234047547948872</v>
+        <v>-0.00424686673788256</v>
       </c>
       <c r="D60">
-        <v>-0.1371467149334324</v>
+        <v>0.04856622130956915</v>
       </c>
       <c r="E60">
-        <v>0.0130966062418446</v>
+        <v>-0.009563069616164837</v>
       </c>
       <c r="F60">
-        <v>-0.06684686215881323</v>
+        <v>-0.03114996383461483</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1183871321877926</v>
+        <v>-0.08294873266529199</v>
       </c>
       <c r="C61">
-        <v>-0.0641518759904231</v>
+        <v>0.01265570521931545</v>
       </c>
       <c r="D61">
-        <v>-0.01559935562433655</v>
+        <v>0.1149030598105933</v>
       </c>
       <c r="E61">
-        <v>0.04005964896111019</v>
+        <v>-0.04246693954571967</v>
       </c>
       <c r="F61">
-        <v>-0.08775260561126043</v>
+        <v>0.01250558131724162</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1567517798832169</v>
+        <v>-0.170127458339102</v>
       </c>
       <c r="C62">
-        <v>-0.03125938799353072</v>
+        <v>0.01789121938785347</v>
       </c>
       <c r="D62">
-        <v>-0.006129027044922679</v>
+        <v>0.01113401872799106</v>
       </c>
       <c r="E62">
-        <v>0.01113234480366409</v>
+        <v>-0.03638626657081952</v>
       </c>
       <c r="F62">
-        <v>0.009918366942506565</v>
+        <v>0.02417169120271052</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04209138328204678</v>
+        <v>-0.04214261349536837</v>
       </c>
       <c r="C63">
-        <v>-0.007462196379179707</v>
+        <v>0.002766739662484461</v>
       </c>
       <c r="D63">
-        <v>0.02243774952367434</v>
+        <v>0.05205744873648226</v>
       </c>
       <c r="E63">
-        <v>0.004882945677280388</v>
+        <v>-0.02220722030140009</v>
       </c>
       <c r="F63">
-        <v>-0.003538316179196427</v>
+        <v>0.00552859214985472</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09344833430405673</v>
+        <v>-0.1116125153671544</v>
       </c>
       <c r="C64">
-        <v>-0.00756444220208175</v>
+        <v>0.0111869424604454</v>
       </c>
       <c r="D64">
-        <v>-0.01612111283004783</v>
+        <v>0.04376756862383236</v>
       </c>
       <c r="E64">
-        <v>0.007103171722721659</v>
+        <v>-0.0207073387605096</v>
       </c>
       <c r="F64">
-        <v>-0.01078397717776108</v>
+        <v>0.02510017665808344</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1190862095623561</v>
+        <v>-0.1460928567531438</v>
       </c>
       <c r="C65">
-        <v>-0.01043862743714773</v>
+        <v>0.03136359531626451</v>
       </c>
       <c r="D65">
-        <v>0.02971762600923298</v>
+        <v>-0.04305425375663968</v>
       </c>
       <c r="E65">
-        <v>-0.01124095576357232</v>
+        <v>-0.0005406833166638117</v>
       </c>
       <c r="F65">
-        <v>-0.007700227575422046</v>
+        <v>0.04916796007921198</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1540379606314466</v>
+        <v>-0.1285235487464212</v>
       </c>
       <c r="C66">
-        <v>-0.08811552966856201</v>
+        <v>0.01434921589506424</v>
       </c>
       <c r="D66">
-        <v>-0.0792879717151705</v>
+        <v>0.1435741016750441</v>
       </c>
       <c r="E66">
-        <v>0.09496814891646074</v>
+        <v>-0.06920874743788891</v>
       </c>
       <c r="F66">
-        <v>-0.1330274935383734</v>
+        <v>0.02848157462240552</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06778887188008628</v>
+        <v>-0.06197977961071745</v>
       </c>
       <c r="C67">
-        <v>-0.04476468367890096</v>
+        <v>0.003014869234948757</v>
       </c>
       <c r="D67">
-        <v>0.02220063410121153</v>
+        <v>0.05378896737814837</v>
       </c>
       <c r="E67">
-        <v>0.07598668876770107</v>
+        <v>-0.01738793449822252</v>
       </c>
       <c r="F67">
-        <v>0.01596375293552058</v>
+        <v>-0.04163412995059697</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08660128250567052</v>
+        <v>-0.117274067982721</v>
       </c>
       <c r="C68">
-        <v>0.205186726721557</v>
+        <v>0.02731149079726633</v>
       </c>
       <c r="D68">
-        <v>0.1820292778736784</v>
+        <v>-0.2614310506860441</v>
       </c>
       <c r="E68">
-        <v>-0.04596964014087228</v>
+        <v>0.08763576589976896</v>
       </c>
       <c r="F68">
-        <v>-0.04222111063129052</v>
+        <v>0.03148467508368478</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03418412612189794</v>
+        <v>-0.03908973980526251</v>
       </c>
       <c r="C69">
-        <v>-0.002373487161127616</v>
+        <v>0.000911245317848134</v>
       </c>
       <c r="D69">
-        <v>0.0194117698736291</v>
+        <v>0.01000135311862604</v>
       </c>
       <c r="E69">
-        <v>0.02276844152696468</v>
+        <v>-0.02420682886845844</v>
       </c>
       <c r="F69">
-        <v>-0.001059709655902357</v>
+        <v>-0.01028189774180657</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.029762935031477</v>
+        <v>-0.0621174440147307</v>
       </c>
       <c r="C70">
-        <v>-0.0161054106505401</v>
+        <v>-0.02871811135549266</v>
       </c>
       <c r="D70">
-        <v>0.04869961452828071</v>
+        <v>0.02974014291068568</v>
       </c>
       <c r="E70">
-        <v>0.002140145778581534</v>
+        <v>0.04991165839873315</v>
       </c>
       <c r="F70">
-        <v>-0.03500664923923175</v>
+        <v>-0.2696561268053503</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1000230458024632</v>
+        <v>-0.1365828049119719</v>
       </c>
       <c r="C71">
-        <v>0.2184170607167813</v>
+        <v>0.03159743296390457</v>
       </c>
       <c r="D71">
-        <v>0.1971487761091454</v>
+        <v>-0.2765743370271284</v>
       </c>
       <c r="E71">
-        <v>-0.0322372216593444</v>
+        <v>0.09630623504350828</v>
       </c>
       <c r="F71">
-        <v>-0.03723804051925811</v>
+        <v>0.03743515379165803</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1397912431206741</v>
+        <v>-0.1410322053409838</v>
       </c>
       <c r="C72">
-        <v>0.02720974633995999</v>
+        <v>0.02497268505331253</v>
       </c>
       <c r="D72">
-        <v>0.0003592438683795371</v>
+        <v>0.004692054706818204</v>
       </c>
       <c r="E72">
-        <v>0.01464528222083415</v>
+        <v>-0.04478904338516924</v>
       </c>
       <c r="F72">
-        <v>0.008888161904550251</v>
+        <v>0.02579330816235297</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2278777337489191</v>
+        <v>-0.2030004480569695</v>
       </c>
       <c r="C73">
-        <v>-0.01117420597692124</v>
+        <v>0.01161878553867173</v>
       </c>
       <c r="D73">
-        <v>-0.0351195856410431</v>
+        <v>0.01708297977099101</v>
       </c>
       <c r="E73">
-        <v>0.08594856334751814</v>
+        <v>-0.06359642586886817</v>
       </c>
       <c r="F73">
-        <v>-0.07826345701010182</v>
+        <v>0.03275327199727802</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1138063519783261</v>
+        <v>-0.09433897950799351</v>
       </c>
       <c r="C74">
-        <v>-0.01212131901012697</v>
+        <v>0.01224426460582722</v>
       </c>
       <c r="D74">
-        <v>-0.04065987186203178</v>
+        <v>0.02094559794481123</v>
       </c>
       <c r="E74">
-        <v>0.04988587512231327</v>
+        <v>-0.04836501257813344</v>
       </c>
       <c r="F74">
-        <v>0.005111386488007133</v>
+        <v>0.04894630841206722</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1238704499985049</v>
+        <v>-0.1293697605427786</v>
       </c>
       <c r="C75">
-        <v>-0.03225443899711264</v>
+        <v>0.0265161381412549</v>
       </c>
       <c r="D75">
-        <v>-0.03705803194783529</v>
+        <v>0.03445916593568833</v>
       </c>
       <c r="E75">
-        <v>0.02537251582844522</v>
+        <v>-0.06061689041643538</v>
       </c>
       <c r="F75">
-        <v>0.006497610510820353</v>
+        <v>0.01351098340901565</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01746668004490135</v>
+        <v>-0.00334409142256268</v>
       </c>
       <c r="C76">
-        <v>0.01226809233207308</v>
+        <v>0.000800934557561299</v>
       </c>
       <c r="D76">
-        <v>0.01285242541765176</v>
+        <v>-0.00243211288141061</v>
       </c>
       <c r="E76">
-        <v>0.007731125666102015</v>
+        <v>-0.0005237238425303945</v>
       </c>
       <c r="F76">
-        <v>-0.008830063100041179</v>
+        <v>0.003943676757467666</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07608875988960882</v>
+        <v>-0.07821942944699858</v>
       </c>
       <c r="C77">
-        <v>-0.09430683486568557</v>
+        <v>0.008850739252476628</v>
       </c>
       <c r="D77">
-        <v>-0.06670888925164699</v>
+        <v>0.1179217018924919</v>
       </c>
       <c r="E77">
-        <v>0.007667921472751501</v>
+        <v>-0.04014235684694116</v>
       </c>
       <c r="F77">
-        <v>-0.003959405027081488</v>
+        <v>0.03085052850616622</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1174934108504116</v>
+        <v>-0.1039469472291304</v>
       </c>
       <c r="C78">
-        <v>0.02796838146325797</v>
+        <v>0.04006848138395648</v>
       </c>
       <c r="D78">
-        <v>-0.05263449432943113</v>
+        <v>0.1175101205240466</v>
       </c>
       <c r="E78">
-        <v>0.1964807301036667</v>
+        <v>-0.08296721054972966</v>
       </c>
       <c r="F78">
-        <v>0.2883471442234403</v>
+        <v>0.06318198562276718</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1311766458548482</v>
+        <v>-0.1641153492345822</v>
       </c>
       <c r="C79">
-        <v>5.411651255569598e-05</v>
+        <v>0.02069873781667286</v>
       </c>
       <c r="D79">
-        <v>-0.06400607515126627</v>
+        <v>0.01901070135636912</v>
       </c>
       <c r="E79">
-        <v>0.02983102635308057</v>
+        <v>-0.04883920393199839</v>
       </c>
       <c r="F79">
-        <v>-0.005348455238348431</v>
+        <v>0.004394706011002229</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08365994524425026</v>
+        <v>-0.08079275701800491</v>
       </c>
       <c r="C80">
-        <v>-0.09634355584726716</v>
+        <v>-0.0009839437027051746</v>
       </c>
       <c r="D80">
-        <v>0.01641697608749233</v>
+        <v>0.05718810613028461</v>
       </c>
       <c r="E80">
-        <v>0.0237754228311408</v>
+        <v>-0.03516346769749902</v>
       </c>
       <c r="F80">
-        <v>-0.01601509664990461</v>
+        <v>-0.01827140824135094</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.141258538480188</v>
+        <v>-0.1230690768414325</v>
       </c>
       <c r="C81">
-        <v>-0.02749454180293936</v>
+        <v>0.03031559023689575</v>
       </c>
       <c r="D81">
-        <v>-0.05283275882353152</v>
+        <v>0.0190029879618223</v>
       </c>
       <c r="E81">
-        <v>0.04272692129419096</v>
+        <v>-0.06004779966462531</v>
       </c>
       <c r="F81">
-        <v>0.00551488872707771</v>
+        <v>0.006615978993755756</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1649359542725748</v>
+        <v>-0.164135786160129</v>
       </c>
       <c r="C82">
-        <v>-0.04772076287624625</v>
+        <v>0.02247330940581919</v>
       </c>
       <c r="D82">
-        <v>-0.01041888357324496</v>
+        <v>0.01288386294898241</v>
       </c>
       <c r="E82">
-        <v>0.02179105388131266</v>
+        <v>-0.03463006972469408</v>
       </c>
       <c r="F82">
-        <v>-0.02240867856963314</v>
+        <v>0.068230414943506</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08059033697218974</v>
+        <v>-0.062320328332761</v>
       </c>
       <c r="C83">
-        <v>-0.05130350412394801</v>
+        <v>0.0030752603999267</v>
       </c>
       <c r="D83">
-        <v>-0.04260714591312676</v>
+        <v>0.05105215153191386</v>
       </c>
       <c r="E83">
-        <v>-0.0311271936745044</v>
+        <v>-0.005547983160794307</v>
       </c>
       <c r="F83">
-        <v>0.0569370493157099</v>
+        <v>-0.04397119524145183</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07351394153664428</v>
+        <v>-0.0588813785596378</v>
       </c>
       <c r="C84">
-        <v>-0.008084353110690067</v>
+        <v>0.01069058900080537</v>
       </c>
       <c r="D84">
-        <v>0.01108274005209651</v>
+        <v>0.06460189756766603</v>
       </c>
       <c r="E84">
-        <v>-0.02696738337289242</v>
+        <v>-0.00405349803569314</v>
       </c>
       <c r="F84">
-        <v>-0.07481637785135339</v>
+        <v>0.01078972561269593</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.125497796171863</v>
+        <v>-0.1388240262777576</v>
       </c>
       <c r="C85">
-        <v>-0.0152469479129751</v>
+        <v>0.02628456068887518</v>
       </c>
       <c r="D85">
-        <v>-0.02218409228375995</v>
+        <v>0.01505147727775815</v>
       </c>
       <c r="E85">
-        <v>0.02447100328998234</v>
+        <v>-0.04151173415800173</v>
       </c>
       <c r="F85">
-        <v>0.0001321946881775602</v>
+        <v>0.04607052356801031</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1372229951199737</v>
+        <v>-0.09447857490072502</v>
       </c>
       <c r="C86">
-        <v>0.2165861394559888</v>
+        <v>-0.007200344119509563</v>
       </c>
       <c r="D86">
-        <v>-0.5303386457409554</v>
+        <v>0.02290941163265656</v>
       </c>
       <c r="E86">
-        <v>-0.7552093805167457</v>
+        <v>-0.1487606212833714</v>
       </c>
       <c r="F86">
-        <v>0.1121785682446737</v>
+        <v>-0.8744486002666138</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1236025385524314</v>
+        <v>-0.0957968406029097</v>
       </c>
       <c r="C87">
-        <v>-0.1043732058077816</v>
+        <v>0.02191743344200917</v>
       </c>
       <c r="D87">
-        <v>-0.03268252129168132</v>
+        <v>0.09059430603345314</v>
       </c>
       <c r="E87">
-        <v>0.02466448442901268</v>
+        <v>0.05341242773790886</v>
       </c>
       <c r="F87">
-        <v>0.000658608236291225</v>
+        <v>0.08184652392822915</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05082008962265814</v>
+        <v>-0.0609671245754641</v>
       </c>
       <c r="C88">
-        <v>-0.009944562237474785</v>
+        <v>0.002432440306796878</v>
       </c>
       <c r="D88">
-        <v>-0.00652470468307587</v>
+        <v>0.05416807162135695</v>
       </c>
       <c r="E88">
-        <v>0.02797960148462049</v>
+        <v>-0.02723101760368461</v>
       </c>
       <c r="F88">
-        <v>-0.06168537107834763</v>
+        <v>0.009571594039766393</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1508777956124522</v>
+        <v>-0.1360627306796676</v>
       </c>
       <c r="C89">
-        <v>0.2791365290745711</v>
+        <v>0.009734030457343675</v>
       </c>
       <c r="D89">
-        <v>0.229853551244051</v>
+        <v>-0.2539216344030281</v>
       </c>
       <c r="E89">
-        <v>-0.04721947419252965</v>
+        <v>0.09126765708034799</v>
       </c>
       <c r="F89">
-        <v>0.03839501399827876</v>
+        <v>0.01572193173629425</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1102459897031356</v>
+        <v>-0.1479964311200417</v>
       </c>
       <c r="C90">
-        <v>0.225795335831896</v>
+        <v>0.0273521437370685</v>
       </c>
       <c r="D90">
-        <v>0.1803277971518677</v>
+        <v>-0.2668163318936577</v>
       </c>
       <c r="E90">
-        <v>-0.03702737784012987</v>
+        <v>0.1091018569963556</v>
       </c>
       <c r="F90">
-        <v>-0.05338394352320787</v>
+        <v>0.01996607320389942</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08628101863947266</v>
+        <v>-0.1194080510660701</v>
       </c>
       <c r="C91">
-        <v>-0.01253514390288125</v>
+        <v>0.01692949414086717</v>
       </c>
       <c r="D91">
-        <v>-0.04384090243280089</v>
+        <v>-0.008028913217068162</v>
       </c>
       <c r="E91">
-        <v>0.01034412462110348</v>
+        <v>-0.05791685431581647</v>
       </c>
       <c r="F91">
-        <v>-0.001416363840412018</v>
+        <v>-0.01629794792233744</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1281895374567023</v>
+        <v>-0.1504415495443023</v>
       </c>
       <c r="C92">
-        <v>0.2378751742341288</v>
+        <v>0.01907515372793396</v>
       </c>
       <c r="D92">
-        <v>0.2169530513426964</v>
+        <v>-0.2940762808227234</v>
       </c>
       <c r="E92">
-        <v>-0.0559192857584357</v>
+        <v>0.1033026141213773</v>
       </c>
       <c r="F92">
-        <v>0.01360405831195242</v>
+        <v>0.01414949892751747</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1163000865654391</v>
+        <v>-0.1520576218246957</v>
       </c>
       <c r="C93">
-        <v>0.2426242262703717</v>
+        <v>0.02334575578106066</v>
       </c>
       <c r="D93">
-        <v>0.2106794610102254</v>
+        <v>-0.2660461419307946</v>
       </c>
       <c r="E93">
-        <v>-0.07669253360938889</v>
+        <v>0.07593013648151541</v>
       </c>
       <c r="F93">
-        <v>-0.07689141444076805</v>
+        <v>0.01500554794410686</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1473757517745719</v>
+        <v>-0.1326114030457996</v>
       </c>
       <c r="C94">
-        <v>-0.02835645724723024</v>
+        <v>0.02371303420200446</v>
       </c>
       <c r="D94">
-        <v>-0.02574005354631856</v>
+        <v>0.0460374062688697</v>
       </c>
       <c r="E94">
-        <v>0.08412443517172966</v>
+        <v>-0.06118084230503083</v>
       </c>
       <c r="F94">
-        <v>0.01200900539662132</v>
+        <v>0.03139637904944612</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1152573593416921</v>
+        <v>-0.1258317394637413</v>
       </c>
       <c r="C95">
-        <v>-0.02943027941150829</v>
+        <v>0.00474798519291875</v>
       </c>
       <c r="D95">
-        <v>-0.01004639292065913</v>
+        <v>0.09024704040567838</v>
       </c>
       <c r="E95">
-        <v>0.02704902537775875</v>
+        <v>-0.04532693333072476</v>
       </c>
       <c r="F95">
-        <v>0.02281660457087768</v>
+        <v>-0.01388836425852546</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01319598833644967</v>
+        <v>-0.09896214350680703</v>
       </c>
       <c r="C96">
-        <v>-0.0037066659934549</v>
+        <v>-0.9887645629328018</v>
       </c>
       <c r="D96">
-        <v>0.005468177421113616</v>
+        <v>-0.03495605442724534</v>
       </c>
       <c r="E96">
-        <v>-0.003668403682679893</v>
+        <v>-0.05845253397634081</v>
       </c>
       <c r="F96">
-        <v>0.00805092478082671</v>
+        <v>0.04599862170182423</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1741334226833949</v>
+        <v>-0.1905871520133567</v>
       </c>
       <c r="C97">
-        <v>-0.00981776226628172</v>
+        <v>-0.009562068391795714</v>
       </c>
       <c r="D97">
-        <v>-0.01016388991602536</v>
+        <v>-0.01208723212374328</v>
       </c>
       <c r="E97">
-        <v>0.05188516874224064</v>
+        <v>-0.01025819949535041</v>
       </c>
       <c r="F97">
-        <v>0.1141304450286865</v>
+        <v>-0.1513306640461112</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2453748172820969</v>
+        <v>-0.2053795394258137</v>
       </c>
       <c r="C98">
-        <v>-0.02632304012718071</v>
+        <v>0.007146360366048357</v>
       </c>
       <c r="D98">
-        <v>0.03573167395751738</v>
+        <v>0.009518498549091873</v>
       </c>
       <c r="E98">
-        <v>-0.1257118184183436</v>
+        <v>0.09732706447691104</v>
       </c>
       <c r="F98">
-        <v>0.1142848299833</v>
+        <v>-0.1096480288749777</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04244615811313576</v>
+        <v>-0.05557711157697255</v>
       </c>
       <c r="C99">
-        <v>0.01645470251671493</v>
+        <v>-0.004137537445343338</v>
       </c>
       <c r="D99">
-        <v>0.006688893939986489</v>
+        <v>0.03582369154786176</v>
       </c>
       <c r="E99">
-        <v>0.05434799885770888</v>
+        <v>-0.02553596569757286</v>
       </c>
       <c r="F99">
-        <v>0.01343658821290255</v>
+        <v>0.002058769686521166</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1025813655545624</v>
+        <v>-0.1226632181626496</v>
       </c>
       <c r="C100">
-        <v>-0.6156742016601903</v>
+        <v>-0.05208045433494855</v>
       </c>
       <c r="D100">
-        <v>0.541924289537545</v>
+        <v>0.3481447901619923</v>
       </c>
       <c r="E100">
-        <v>-0.484435225019217</v>
+        <v>0.894193111542125</v>
       </c>
       <c r="F100">
-        <v>0.09455410528028897</v>
+        <v>-0.07118541423272561</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02965615383080014</v>
+        <v>-0.02703390390920473</v>
       </c>
       <c r="C101">
-        <v>-0.0067089300519745</v>
+        <v>0.008569094134523661</v>
       </c>
       <c r="D101">
-        <v>0.0008876314484810696</v>
+        <v>0.02973901410177669</v>
       </c>
       <c r="E101">
-        <v>-0.0001681995221777467</v>
+        <v>-0.01139275551305786</v>
       </c>
       <c r="F101">
-        <v>-0.03562570143280849</v>
+        <v>-0.01682399667361709</v>
       </c>
     </row>
     <row r="102" spans="1:6">
